--- a/data/trans_bre/P16B17-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16B17-Habitat-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -834,7 +834,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_bre/P16B17-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16B17-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
